--- a/invert/data/development/lc_invert_sp_recon.xlsx
+++ b/invert/data/development/lc_invert_sp_recon.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lc_invert_sp_recon" sheetId="1" r:id="rId1"/>
+    <sheet name="definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="fam_sp_codes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>month</t>
   </si>
@@ -35,15 +34,9 @@
     <t>year</t>
   </si>
   <si>
-    <t>locality</t>
-  </si>
-  <si>
     <t>station</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>sp_code</t>
   </si>
   <si>
@@ -54,6 +47,228 @@
   </si>
   <si>
     <t>id_by</t>
+  </si>
+  <si>
+    <t>fam_code</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water quality station number </t>
+  </si>
+  <si>
+    <t>date sample collected</t>
+  </si>
+  <si>
+    <t>date_col</t>
+  </si>
+  <si>
+    <t>date_sort</t>
+  </si>
+  <si>
+    <t>date_id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>intitials of sorter</t>
+  </si>
+  <si>
+    <t>date sample sorted</t>
+  </si>
+  <si>
+    <t>initials of identifier</t>
+  </si>
+  <si>
+    <t>date sample indentified</t>
+  </si>
+  <si>
+    <t>first four letters of family name</t>
+  </si>
+  <si>
+    <t>first two letters of genus plus first two letters of species</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Capitellidae</t>
+  </si>
+  <si>
+    <t>CAPI</t>
+  </si>
+  <si>
+    <t>Spionidae</t>
+  </si>
+  <si>
+    <t>SPIO</t>
+  </si>
+  <si>
+    <t>Paraprionospio pinnata</t>
+  </si>
+  <si>
+    <t>PAPI</t>
+  </si>
+  <si>
+    <t>Glyceridae</t>
+  </si>
+  <si>
+    <t>GLYC</t>
+  </si>
+  <si>
+    <t>Glycera sp.</t>
+  </si>
+  <si>
+    <t>GLSP</t>
+  </si>
+  <si>
+    <t>Sabillidae</t>
+  </si>
+  <si>
+    <t>SABI</t>
+  </si>
+  <si>
+    <t>Phoronidae</t>
+  </si>
+  <si>
+    <t>PHOR</t>
+  </si>
+  <si>
+    <t>Amygdalum papyrium</t>
+  </si>
+  <si>
+    <t>AMPA</t>
+  </si>
+  <si>
+    <t>Parvilucina multilineata</t>
+  </si>
+  <si>
+    <t>PAMU</t>
+  </si>
+  <si>
+    <t>ACCA</t>
+  </si>
+  <si>
+    <t>Nassarius vibex</t>
+  </si>
+  <si>
+    <t>NAVI</t>
+  </si>
+  <si>
+    <t>Odostomia sp.</t>
+  </si>
+  <si>
+    <t>Boonea sp.</t>
+  </si>
+  <si>
+    <t>ODSP</t>
+  </si>
+  <si>
+    <t>BOSP</t>
+  </si>
+  <si>
+    <t>Ampelisca sp.</t>
+  </si>
+  <si>
+    <t>AMSP</t>
+  </si>
+  <si>
+    <t>Cyathura polita</t>
+  </si>
+  <si>
+    <t>CYPO</t>
+  </si>
+  <si>
+    <t>Mytilidae</t>
+  </si>
+  <si>
+    <t>MYTI</t>
+  </si>
+  <si>
+    <t>Lucinidae</t>
+  </si>
+  <si>
+    <t>LUCI</t>
+  </si>
+  <si>
+    <t>Acteocina canaliculata</t>
+  </si>
+  <si>
+    <t>Acteocinidae</t>
+  </si>
+  <si>
+    <t>ACTE</t>
+  </si>
+  <si>
+    <t>Nassariidae</t>
+  </si>
+  <si>
+    <t>NASS</t>
+  </si>
+  <si>
+    <t>Pyramidellidae</t>
+  </si>
+  <si>
+    <t>PYRA</t>
+  </si>
+  <si>
+    <t>Ampelliscidae</t>
+  </si>
+  <si>
+    <t>AMPE</t>
+  </si>
+  <si>
+    <t>Anthuridae</t>
+  </si>
+  <si>
+    <t>ANTH</t>
+  </si>
+  <si>
+    <t>Isopoda</t>
+  </si>
+  <si>
+    <t>Amphipoda</t>
+  </si>
+  <si>
+    <t>Gastropoda</t>
+  </si>
+  <si>
+    <t>Bivalvia</t>
+  </si>
+  <si>
+    <t>class/order</t>
+  </si>
+  <si>
+    <t>Polychaeta</t>
+  </si>
+  <si>
+    <t>JANUARY</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Ophiuroidea</t>
+  </si>
+  <si>
+    <t>EXAMPLE LINE: DELETE</t>
   </si>
 </sst>
 </file>
@@ -92,10 +307,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,47 +593,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43466</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43466</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/invert/data/development/lc_invert_sp_recon.xlsx
+++ b/invert/data/development/lc_invert_sp_recon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>month</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
@@ -382,53 +385,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
     </row>
